--- a/Team-Data/2011-12/4-20-2011-12.xlsx
+++ b/Team-Data/2011-12/4-20-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
@@ -684,34 +751,34 @@
         <v>36.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P2" t="n">
         <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
         <v>41.3</v>
@@ -720,19 +787,19 @@
         <v>22.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
@@ -744,7 +811,7 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -759,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,16 +865,16 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.578</v>
+        <v>0.587</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,10 +933,10 @@
         <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -878,34 +945,34 @@
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -917,28 +984,28 @@
         <v>20.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
         <v>92.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="n">
         <v>10</v>
       </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -959,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -977,25 +1044,25 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
         <v>8</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>0.113</v>
+        <v>0.115</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,7 +1115,7 @@
         <v>33.3</v>
       </c>
       <c r="J4" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.414</v>
@@ -1060,13 +1127,13 @@
         <v>13.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.297</v>
+        <v>0.296</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
         <v>0.747</v>
@@ -1081,13 +1148,13 @@
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X4" t="n">
         <v>5.4</v>
@@ -1096,19 +1163,19 @@
         <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA4" t="n">
         <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.5</v>
+        <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,19 +1369,19 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1341,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J6" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
         <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
         <v>15.5</v>
@@ -1460,7 +1527,7 @@
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
         <v>21.1</v>
@@ -1469,10 +1536,10 @@
         <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1502,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>82.09999999999999</v>
@@ -1600,31 +1667,31 @@
         <v>0.444</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
         <v>21.1</v>
@@ -1639,25 +1706,25 @@
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>18.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
@@ -1678,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1687,10 +1754,10 @@
         <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1699,16 +1766,16 @@
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1887,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P10" t="n">
         <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S10" t="n">
         <v>29.4</v>
       </c>
       <c r="T10" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.1</v>
@@ -2194,13 +2261,13 @@
         <v>16.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,7 +2282,7 @@
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2254,16 +2321,16 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2403,19 +2470,19 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2430,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
@@ -2451,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2579,10 +2646,10 @@
         <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2776,10 +2843,10 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2791,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="H14" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I14" t="n">
         <v>36.7</v>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
@@ -2880,25 +2947,25 @@
         <v>16.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="O14" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U14" t="n">
         <v>22.4</v>
@@ -2916,19 +2983,19 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB14" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.447</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M15" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.33</v>
@@ -3071,7 +3138,7 @@
         <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
@@ -3083,10 +3150,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
         <v>9.6</v>
@@ -3104,13 +3171,13 @@
         <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -3122,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3140,7 +3207,7 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
@@ -3149,10 +3216,10 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
@@ -3179,13 +3246,13 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
@@ -3313,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>20</v>
@@ -3322,7 +3389,7 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3498,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
@@ -3522,10 +3589,10 @@
         <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
         <v>6</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -3668,13 +3735,13 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>12</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4077,10 +4144,10 @@
         <v>26</v>
       </c>
       <c r="AW20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX20" t="n">
         <v>21</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>22</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4089,7 +4156,7 @@
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.524</v>
+        <v>0.532</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4151,37 +4218,37 @@
         <v>7.7</v>
       </c>
       <c r="M21" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R21" t="n">
         <v>11.5</v>
       </c>
       <c r="S21" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
         <v>16.2</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.2</v>
@@ -4190,19 +4257,19 @@
         <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4214,7 +4281,7 @@
         <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4226,22 +4293,22 @@
         <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>15</v>
@@ -4250,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
         <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0.802</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4372,19 +4439,19 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
         <v>102.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4411,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4456,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="BB22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC22" t="n">
         <v>3</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4575,10 +4642,10 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>9</v>
@@ -4787,13 +4854,13 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
@@ -4811,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5142,13 +5209,13 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5166,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
         <v>13</v>
@@ -5184,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.317</v>
+        <v>0.323</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,28 +5301,28 @@
         <v>37.3</v>
       </c>
       <c r="J27" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.316</v>
       </c>
       <c r="O27" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R27" t="n">
         <v>13.5</v>
@@ -5273,31 +5340,31 @@
         <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5318,7 +5385,7 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>11</v>
@@ -5327,7 +5394,7 @@
         <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5354,16 +5421,16 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.476</v>
+        <v>0.474</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O28" t="n">
         <v>16</v>
@@ -5437,7 +5504,7 @@
         <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R28" t="n">
         <v>10.3</v>
@@ -5470,13 +5537,13 @@
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5497,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5512,10 +5579,10 @@
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,10 +5591,10 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5548,10 +5615,10 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6055,7 +6122,7 @@
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-20-2011-12</t>
+          <t>2012-04-20</t>
         </is>
       </c>
     </row>
